--- a/Sentiment_Analysis_Results_Final.xlsx
+++ b/Sentiment_Analysis_Results_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0697797_u_nus_edu/Documents/DSS5105/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengkk/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_96B1ABE41C1D82B68CF89517D9479FA997621C95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA55DDD-AA6A-4F7C-96F7-6BEBECF4477D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD25692-8518-834E-A7A3-A07CA1C4C2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
   <si>
     <t>Company</t>
   </si>
@@ -424,40 +424,29 @@
   </si>
   <si>
     <t>XPeng</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Group AG</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiao Peng</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ford Motor Company</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -467,8 +456,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -574,18 +616,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -891,17 +937,17 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="19" max="19" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1089,7 @@
         <v>3.8475292385820273E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1114,7 +1160,7 @@
         <v>-3.6921388662018287E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1185,7 +1231,7 @@
         <v>1.417877297703328E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1256,7 +1302,7 @@
         <v>1.005826057768992E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1327,7 +1373,7 @@
         <v>-0.29851287147074801</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1398,7 +1444,7 @@
         <v>0.33800697063534929</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1515,7 @@
         <v>0.32274316718365947</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1586,7 @@
         <v>0.1158477964995257</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1611,7 +1657,7 @@
         <v>-7.0229042170888378E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1682,7 +1728,7 @@
         <v>-0.156679669340342</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1753,7 +1799,7 @@
         <v>-2.2645976568059192E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1824,7 +1870,7 @@
         <v>0.45404884539011608</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1895,7 +1941,7 @@
         <v>0.48322902128430367</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1966,7 +2012,7 @@
         <v>0.42748006787396681</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2037,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2108,7 +2154,7 @@
         <v>0.40522214512986759</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2179,7 +2225,7 @@
         <v>0.51255950422451968</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2250,7 +2296,7 @@
         <v>0.49058097743209328</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2321,7 +2367,7 @@
         <v>0.2038287515194013</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2392,7 +2438,7 @@
         <v>0.3086211049290844</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2463,7 +2509,7 @@
         <v>0.27990562286747961</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2534,7 +2580,7 @@
         <v>0.54187144022215816</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2605,7 +2651,7 @@
         <v>0.34659351689003598</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2676,7 +2722,7 @@
         <v>0.45484202356921638</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2747,7 +2793,7 @@
         <v>0.2342967277374024</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2818,7 +2864,7 @@
         <v>0.49103141666445133</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2889,7 +2935,7 @@
         <v>0.51574274017936572</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2960,7 +3006,7 @@
         <v>2.2736597012453851E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3031,7 +3077,7 @@
         <v>0.48747276928042982</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3102,7 +3148,7 @@
         <v>0.48416524576166392</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -3173,7 +3219,7 @@
         <v>0.4139320805244126</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -3244,7 +3290,7 @@
         <v>0.34500204200693291</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -3315,7 +3361,7 @@
         <v>0.38441894220670048</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -3386,7 +3432,7 @@
         <v>9.0379855065880033E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -3457,7 +3503,7 @@
         <v>0.22858292049099591</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -3528,7 +3574,7 @@
         <v>0.13322258052619351</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -3599,7 +3645,7 @@
         <v>0.16908780220769459</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -3670,7 +3716,7 @@
         <v>-1.4493096915604591E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -3741,7 +3787,7 @@
         <v>7.44136077865971E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -3812,7 +3858,7 @@
         <v>0.12910868003451739</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -3883,7 +3929,7 @@
         <v>0.19809381564073411</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -3954,7 +4000,7 @@
         <v>-2.992706940701987E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>107</v>
       </c>
@@ -4025,7 +4071,7 @@
         <v>0.11354267546640159</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -4096,7 +4142,7 @@
         <v>0.2315901928831029</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -4167,7 +4213,7 @@
         <v>0.26840499595967371</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -4238,7 +4284,7 @@
         <v>0.21204819508508591</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -4309,7 +4355,7 @@
         <v>8.3274245982475084E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -4380,7 +4426,7 @@
         <v>7.3795174934060626E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -4451,7 +4497,7 @@
         <v>0.36411864943050298</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -4523,6 +4569,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4535,12 +4582,12 @@
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
@@ -4611,7 +4658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -4682,7 +4729,7 @@
         <v>3.8475292385820273E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -4753,7 +4800,7 @@
         <v>-3.6921388662018287E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -4824,7 +4871,7 @@
         <v>1.417877297703328E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -4895,7 +4942,7 @@
         <v>1.005826057768992E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -4966,7 +5013,7 @@
         <v>-0.29851287147074801</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -5037,7 +5084,7 @@
         <v>0.33800697063534929</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -5108,7 +5155,7 @@
         <v>0.32274316718365947</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -5179,7 +5226,7 @@
         <v>0.1158477964995257</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -5250,7 +5297,7 @@
         <v>-7.0229042170888378E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -5321,7 +5368,7 @@
         <v>-0.156679669340342</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -5392,7 +5439,7 @@
         <v>-2.2645976568059192E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -5463,7 +5510,7 @@
         <v>0.45404884539011608</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -5534,7 +5581,7 @@
         <v>0.48322902128430367</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -5605,7 +5652,7 @@
         <v>0.42748006787396681</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -5676,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -5747,7 +5794,7 @@
         <v>0.40522214512986759</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -5818,7 +5865,7 @@
         <v>0.51255950422451968</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5889,7 +5936,7 @@
         <v>0.49058097743209328</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5960,7 +6007,7 @@
         <v>0.2038287515194013</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -6031,7 +6078,7 @@
         <v>0.3086211049290844</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -6102,7 +6149,7 @@
         <v>0.27990562286747961</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -6173,7 +6220,7 @@
         <v>0.54187144022215816</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -6244,7 +6291,7 @@
         <v>0.34659351689003598</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -6315,7 +6362,7 @@
         <v>0.45484202356921638</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -6386,7 +6433,7 @@
         <v>0.2342967277374024</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -6457,7 +6504,7 @@
         <v>0.49103141666445133</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -6528,7 +6575,7 @@
         <v>0.51574274017936572</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -6599,7 +6646,7 @@
         <v>2.2736597012453851E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -6670,7 +6717,7 @@
         <v>0.48747276928042982</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -6741,7 +6788,7 @@
         <v>0.48416524576166392</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -6812,7 +6859,7 @@
         <v>0.4139320805244126</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -6883,7 +6930,7 @@
         <v>0.34500204200693291</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -6954,7 +7001,7 @@
         <v>0.38441894220670048</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -7025,7 +7072,7 @@
         <v>9.0379855065880033E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -7096,7 +7143,7 @@
         <v>0.22858292049099591</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -7167,7 +7214,7 @@
         <v>0.13322258052619351</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -7238,7 +7285,7 @@
         <v>0.16908780220769459</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -7309,7 +7356,7 @@
         <v>-1.4493096915604591E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>130</v>
       </c>
@@ -7380,7 +7427,7 @@
         <v>7.44136077865971E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -7451,7 +7498,7 @@
         <v>0.12910868003451739</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -7522,7 +7569,7 @@
         <v>0.19809381564073411</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -7593,7 +7640,7 @@
         <v>-2.992706940701987E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -7664,7 +7711,7 @@
         <v>0.11354267546640159</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -7735,7 +7782,7 @@
         <v>0.2315901928831029</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -7806,7 +7853,7 @@
         <v>0.26840499595967371</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -7877,7 +7924,7 @@
         <v>0.21204819508508591</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -7948,7 +7995,7 @@
         <v>8.3274245982475084E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -8019,7 +8066,7 @@
         <v>7.3795174934060626E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -8090,7 +8137,7 @@
         <v>0.36411864943050298</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -8162,6 +8209,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8170,241 +8218,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>3.0620000000000001E-2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>5.9889999999999999E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>5.1950000000000003E-2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>3.7810000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.42914999999999998</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.39922999999999997</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.45909</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0.56725000000000003</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>0.46218999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="10">
         <v>0.36959999999999998</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.36498000000000003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.34254000000000001</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0.51409000000000005</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>0.39439999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>0.40476000000000001</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.42831000000000002</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0.35072999999999999</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0.43374000000000001</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0.40250999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>9.2179999999999998E-2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>6.9519999999999998E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.15961</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.13797000000000001</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0.11816</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>0.10901</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.12495000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2.9430000000000001E-2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.16969000000000001</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0.1027</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>0.22214</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.27023999999999998</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.13474</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>7.4279999999999999E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0.17382</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="11">
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="10">
         <v>0.38385000000000002</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.43324000000000001</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0.26898</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.48347000000000001</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>0.38830999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>3.9960000000000002E-2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>3.9359999999999999E-2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>9.9890000000000007E-2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>-0.15931000000000001</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1.0880000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="11">
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="10">
         <v>0.28533999999999998</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.32311000000000001</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0.22209000000000001</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.24687000000000001</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0.26868999999999998</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>